--- a/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brlocalaplicacaoxGPSbodystructure_GPSbodystructurexbrlocalaplicacao.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brlocalaplicacaoxGPSbodystructure_GPSbodystructurexbrlocalaplicacao.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monalisa\OneDrive - Hospital Sírio Libanês\Documentos 1\HSL-IPS\Entregaveis\1.RepositorioSemantico\Imunizacao\ConceptMap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documentos\HSL-IPS\Entregaveis\1.RepositorioSemantico\Imunizacao\ConceptMap\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -6195,9 +6195,6 @@
     <t>Ministério da Saúde do Brasil (http://www.saude.gov.br/fhir/r4/CodeSystem/BRLocalAplicacao) x HL7 International (http://hl7.org/fhir/ValueSet/body-site)</t>
   </si>
   <si>
-    <t>HL7 International (http://hl7.org/fhir/ValueSet/body-site) x Ministério da Saúde do Brasil ((http://www.saude.gov.br/fhir/r4/CodeSystem/BRLocalAplicacao)</t>
-  </si>
-  <si>
     <t>1..1</t>
   </si>
   <si>
@@ -6205,6 +6202,9 @@
   </si>
   <si>
     <t>  3409005</t>
+  </si>
+  <si>
+    <t>HL7 International (http://hl7.org/fhir/ValueSet/body-site) x Ministério da Saúde do Brasil (http://www.saude.gov.br/fhir/r4/CodeSystem/BRLocalAplicacao)</t>
   </si>
 </sst>
 </file>
@@ -6426,23 +6426,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6452,6 +6440,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6473,27 +6494,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7251,7 +7251,7 @@
         <v>4</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -7517,7 +7517,7 @@
         <v>4</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -7654,7 +7654,7 @@
         <v>1063</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="H24" s="18" t="s">
         <v>1762</v>
@@ -7730,7 +7730,7 @@
         <v>1063</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="H26" s="13" t="s">
         <v>1389</v>
@@ -7824,7 +7824,7 @@
   <dimension ref="A1:L1025"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D3" sqref="D1:D1048576"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7846,7 +7846,7 @@
         <v>43</v>
       </c>
       <c r="B1" s="26"/>
-      <c r="C1" s="48"/>
+      <c r="C1" s="34"/>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
@@ -7859,10 +7859,10 @@
     </row>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
-        <v>2053</v>
+        <v>2056</v>
       </c>
       <c r="B2" s="26"/>
-      <c r="C2" s="48"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
       <c r="F2" s="26"/>
@@ -8409,10 +8409,10 @@
       <c r="A17" s="22" t="s">
         <v>1063</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="36" t="s">
         <v>1077</v>
       </c>
       <c r="D17" s="22" t="s">
@@ -8421,7 +8421,7 @@
       <c r="E17" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="35" t="s">
         <v>39</v>
       </c>
       <c r="G17" s="1">
@@ -8445,11 +8445,11 @@
     </row>
     <row r="18" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="23"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="50"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
-      <c r="F18" s="32"/>
+      <c r="F18" s="29"/>
       <c r="G18" s="1">
         <v>6</v>
       </c>
@@ -8471,11 +8471,11 @@
     </row>
     <row r="19" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="23"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="50"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
-      <c r="F19" s="32"/>
+      <c r="F19" s="29"/>
       <c r="G19" s="1">
         <v>7</v>
       </c>
@@ -8497,11 +8497,11 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="23"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="50"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
-      <c r="F20" s="32"/>
+      <c r="F20" s="29"/>
       <c r="G20" s="1">
         <v>10</v>
       </c>
@@ -8523,11 +8523,11 @@
     </row>
     <row r="21" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="24"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="51"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="38"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
-      <c r="F21" s="33"/>
+      <c r="F21" s="30"/>
       <c r="G21" s="1">
         <v>11</v>
       </c>
@@ -20746,19 +20746,19 @@
       </c>
     </row>
     <row r="343" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A343" s="29" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B343" s="38" t="s">
+      <c r="A343" s="43" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B343" s="45" t="s">
         <v>389</v>
       </c>
-      <c r="C343" s="40" t="s">
+      <c r="C343" s="47" t="s">
         <v>1389</v>
       </c>
-      <c r="D343" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E343" s="29" t="s">
+      <c r="D343" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E343" s="43" t="s">
         <v>41</v>
       </c>
       <c r="F343" s="9" t="s">
@@ -20784,11 +20784,11 @@
       </c>
     </row>
     <row r="344" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A344" s="30"/>
-      <c r="B344" s="39"/>
-      <c r="C344" s="41"/>
-      <c r="D344" s="30"/>
-      <c r="E344" s="30"/>
+      <c r="A344" s="44"/>
+      <c r="B344" s="46"/>
+      <c r="C344" s="48"/>
+      <c r="D344" s="44"/>
+      <c r="E344" s="44"/>
       <c r="F344" s="9" t="s">
         <v>39</v>
       </c>
@@ -25030,22 +25030,22 @@
       </c>
     </row>
     <row r="456" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A456" s="35" t="s">
+      <c r="A456" s="31" t="s">
         <v>1063</v>
       </c>
       <c r="B456" s="27" t="s">
         <v>502</v>
       </c>
-      <c r="C456" s="42" t="s">
+      <c r="C456" s="49" t="s">
         <v>1500</v>
       </c>
-      <c r="D456" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="E456" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="F456" s="31" t="s">
+      <c r="D456" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E456" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F456" s="35" t="s">
         <v>39</v>
       </c>
       <c r="G456" s="1">
@@ -25068,12 +25068,12 @@
       </c>
     </row>
     <row r="457" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A457" s="36"/>
-      <c r="B457" s="34"/>
-      <c r="C457" s="43"/>
-      <c r="D457" s="36"/>
-      <c r="E457" s="36"/>
-      <c r="F457" s="32"/>
+      <c r="A457" s="32"/>
+      <c r="B457" s="39"/>
+      <c r="C457" s="50"/>
+      <c r="D457" s="32"/>
+      <c r="E457" s="32"/>
+      <c r="F457" s="29"/>
       <c r="G457" s="1">
         <v>4</v>
       </c>
@@ -25094,12 +25094,12 @@
       </c>
     </row>
     <row r="458" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A458" s="36"/>
-      <c r="B458" s="34"/>
-      <c r="C458" s="43"/>
-      <c r="D458" s="36"/>
-      <c r="E458" s="36"/>
-      <c r="F458" s="32"/>
+      <c r="A458" s="32"/>
+      <c r="B458" s="39"/>
+      <c r="C458" s="50"/>
+      <c r="D458" s="32"/>
+      <c r="E458" s="32"/>
+      <c r="F458" s="29"/>
       <c r="G458" s="1">
         <v>18</v>
       </c>
@@ -25120,12 +25120,12 @@
       </c>
     </row>
     <row r="459" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A459" s="37"/>
+      <c r="A459" s="33"/>
       <c r="B459" s="28"/>
-      <c r="C459" s="44"/>
-      <c r="D459" s="37"/>
-      <c r="E459" s="37"/>
-      <c r="F459" s="33"/>
+      <c r="C459" s="51"/>
+      <c r="D459" s="33"/>
+      <c r="E459" s="33"/>
+      <c r="F459" s="30"/>
       <c r="G459" s="1">
         <v>17</v>
       </c>
@@ -33810,13 +33810,13 @@
       </c>
     </row>
     <row r="688" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A688" s="35" t="s">
+      <c r="A688" s="31" t="s">
         <v>1063</v>
       </c>
       <c r="B688" s="27" t="s">
         <v>736</v>
       </c>
-      <c r="C688" s="45" t="s">
+      <c r="C688" s="40" t="s">
         <v>1724</v>
       </c>
       <c r="D688" s="27" t="s">
@@ -33825,7 +33825,7 @@
       <c r="E688" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="F688" s="32" t="s">
+      <c r="F688" s="29" t="s">
         <v>39</v>
       </c>
       <c r="G688" s="1">
@@ -33848,12 +33848,12 @@
       </c>
     </row>
     <row r="689" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A689" s="36"/>
-      <c r="B689" s="34"/>
-      <c r="C689" s="46"/>
-      <c r="D689" s="34"/>
-      <c r="E689" s="34"/>
-      <c r="F689" s="32"/>
+      <c r="A689" s="32"/>
+      <c r="B689" s="39"/>
+      <c r="C689" s="41"/>
+      <c r="D689" s="39"/>
+      <c r="E689" s="39"/>
+      <c r="F689" s="29"/>
       <c r="G689" s="1">
         <v>14</v>
       </c>
@@ -33874,12 +33874,12 @@
       </c>
     </row>
     <row r="690" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A690" s="36"/>
-      <c r="B690" s="34"/>
-      <c r="C690" s="46"/>
-      <c r="D690" s="34"/>
-      <c r="E690" s="34"/>
-      <c r="F690" s="32"/>
+      <c r="A690" s="32"/>
+      <c r="B690" s="39"/>
+      <c r="C690" s="41"/>
+      <c r="D690" s="39"/>
+      <c r="E690" s="39"/>
+      <c r="F690" s="29"/>
       <c r="G690" s="1">
         <v>13</v>
       </c>
@@ -33900,12 +33900,12 @@
       </c>
     </row>
     <row r="691" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A691" s="36"/>
-      <c r="B691" s="34"/>
-      <c r="C691" s="46"/>
-      <c r="D691" s="34"/>
-      <c r="E691" s="34"/>
-      <c r="F691" s="32"/>
+      <c r="A691" s="32"/>
+      <c r="B691" s="39"/>
+      <c r="C691" s="41"/>
+      <c r="D691" s="39"/>
+      <c r="E691" s="39"/>
+      <c r="F691" s="29"/>
       <c r="G691" s="1">
         <v>12</v>
       </c>
@@ -33926,12 +33926,12 @@
       </c>
     </row>
     <row r="692" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A692" s="36"/>
-      <c r="B692" s="34"/>
-      <c r="C692" s="46"/>
-      <c r="D692" s="34"/>
-      <c r="E692" s="34"/>
-      <c r="F692" s="32"/>
+      <c r="A692" s="32"/>
+      <c r="B692" s="39"/>
+      <c r="C692" s="41"/>
+      <c r="D692" s="39"/>
+      <c r="E692" s="39"/>
+      <c r="F692" s="29"/>
       <c r="G692" s="1">
         <v>2</v>
       </c>
@@ -33952,12 +33952,12 @@
       </c>
     </row>
     <row r="693" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A693" s="37"/>
+      <c r="A693" s="33"/>
       <c r="B693" s="28"/>
-      <c r="C693" s="47"/>
+      <c r="C693" s="42"/>
       <c r="D693" s="28"/>
       <c r="E693" s="28"/>
-      <c r="F693" s="33"/>
+      <c r="F693" s="30"/>
       <c r="G693" s="1">
         <v>1</v>
       </c>
@@ -35387,19 +35387,19 @@
       <c r="A731" s="22" t="s">
         <v>1063</v>
       </c>
-      <c r="B731" s="31" t="s">
+      <c r="B731" s="35" t="s">
         <v>389</v>
       </c>
-      <c r="C731" s="49" t="s">
+      <c r="C731" s="36" t="s">
         <v>1389</v>
       </c>
-      <c r="D731" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="E731" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="F731" s="35" t="s">
+      <c r="D731" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E731" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F731" s="31" t="s">
         <v>39</v>
       </c>
       <c r="G731" s="1">
@@ -35423,8 +35423,8 @@
     </row>
     <row r="732" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A732" s="24"/>
-      <c r="B732" s="33"/>
-      <c r="C732" s="51"/>
+      <c r="B732" s="30"/>
+      <c r="C732" s="38"/>
       <c r="D732" s="24"/>
       <c r="E732" s="24"/>
       <c r="F732" s="24"/>
@@ -44564,7 +44564,7 @@
         <v>5</v>
       </c>
       <c r="L972" s="4" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="973" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -46286,6 +46286,21 @@
   </sheetData>
   <autoFilter ref="A3:L1017"/>
   <mergeCells count="31">
+    <mergeCell ref="E343:E344"/>
+    <mergeCell ref="F456:F459"/>
+    <mergeCell ref="B456:B459"/>
+    <mergeCell ref="E456:E459"/>
+    <mergeCell ref="D456:D459"/>
+    <mergeCell ref="A343:A344"/>
+    <mergeCell ref="B343:B344"/>
+    <mergeCell ref="C343:C344"/>
+    <mergeCell ref="C456:C459"/>
+    <mergeCell ref="D343:D344"/>
+    <mergeCell ref="B688:B693"/>
+    <mergeCell ref="C688:C693"/>
+    <mergeCell ref="D688:D693"/>
+    <mergeCell ref="E688:E693"/>
+    <mergeCell ref="A456:A459"/>
     <mergeCell ref="F688:F693"/>
     <mergeCell ref="A688:A693"/>
     <mergeCell ref="A1:L1"/>
@@ -46302,21 +46317,6 @@
     <mergeCell ref="B731:B732"/>
     <mergeCell ref="C731:C732"/>
     <mergeCell ref="D731:D732"/>
-    <mergeCell ref="B688:B693"/>
-    <mergeCell ref="C688:C693"/>
-    <mergeCell ref="D688:D693"/>
-    <mergeCell ref="E688:E693"/>
-    <mergeCell ref="A456:A459"/>
-    <mergeCell ref="A343:A344"/>
-    <mergeCell ref="B343:B344"/>
-    <mergeCell ref="C343:C344"/>
-    <mergeCell ref="C456:C459"/>
-    <mergeCell ref="D343:D344"/>
-    <mergeCell ref="E343:E344"/>
-    <mergeCell ref="F456:F459"/>
-    <mergeCell ref="B456:B459"/>
-    <mergeCell ref="E456:E459"/>
-    <mergeCell ref="D456:D459"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">

--- a/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brlocalaplicacaoxGPSbodystructure_GPSbodystructurexbrlocalaplicacao.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brlocalaplicacaoxGPSbodystructure_GPSbodystructurexbrlocalaplicacao.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7656" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7656"/>
   </bookViews>
   <sheets>
     <sheet name="brlocalaplicacaoxGPSbodystructu" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12358" uniqueCount="2057">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12360" uniqueCount="2057">
   <si>
     <t>GRAU DE EQUIVALÊNCIA DO MAPEAMENTO</t>
   </si>
@@ -6257,7 +6257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6273,6 +6273,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6342,7 +6348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -6405,15 +6411,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6426,73 +6423,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6791,8 +6818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6809,36 +6836,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="23" t="s">
         <v>2052</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="3" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -7084,7 +7111,7 @@
       <c r="E9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="4" t="s">
         <v>1063</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -7122,7 +7149,9 @@
       <c r="E10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="23"/>
+      <c r="F10" s="4" t="s">
+        <v>1063</v>
+      </c>
       <c r="G10" s="2" t="s">
         <v>57</v>
       </c>
@@ -7158,7 +7187,9 @@
       <c r="E11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="24"/>
+      <c r="F11" s="4" t="s">
+        <v>1063</v>
+      </c>
       <c r="G11" s="2" t="s">
         <v>57</v>
       </c>
@@ -7703,10 +7734,10 @@
       <c r="J25" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K25" s="27" t="s">
+      <c r="K25" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="L25" s="27" t="s">
+      <c r="L25" s="24" t="s">
         <v>2050</v>
       </c>
     </row>
@@ -7741,8 +7772,8 @@
       <c r="J26" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
     </row>
     <row r="27" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
@@ -7784,8 +7815,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A3:L27"/>
-  <mergeCells count="5">
-    <mergeCell ref="F9:F11"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="K25:K26"/>
@@ -7823,8 +7853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1025"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView showGridLines="0" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7842,36 +7872,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
     </row>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="23" t="s">
         <v>2056</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="3" spans="1:12" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
@@ -8406,144 +8436,144 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B17" s="35" t="s">
+      <c r="A17" s="29" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B17" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="31" t="s">
         <v>1077</v>
       </c>
-      <c r="D17" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="35" t="s">
+      <c r="D17" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="27">
         <v>5</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17" s="4" t="s">
+      <c r="I17" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="28" t="s">
         <v>2048</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="1">
-        <v>6</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="A18" s="33"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="27">
+        <v>6</v>
+      </c>
+      <c r="H18" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18" s="4" t="s">
+      <c r="I18" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="28" t="s">
         <v>2048</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="1">
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="27">
         <v>7</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19" s="4" t="s">
+      <c r="I19" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="28" t="s">
         <v>2048</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="1">
+      <c r="A20" s="33"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="27">
         <v>10</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20" s="4" t="s">
+      <c r="I20" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="28" t="s">
         <v>2048</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="30"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="38"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="1">
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="27">
         <v>11</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21" s="4" t="s">
+      <c r="I21" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="L21" s="28" t="s">
         <v>2048</v>
       </c>
     </row>
@@ -20746,68 +20776,68 @@
       </c>
     </row>
     <row r="343" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A343" s="43" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B343" s="45" t="s">
+      <c r="A343" s="39" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B343" s="40" t="s">
         <v>389</v>
       </c>
-      <c r="C343" s="47" t="s">
+      <c r="C343" s="41" t="s">
         <v>1389</v>
       </c>
-      <c r="D343" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="E343" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="F343" s="9" t="s">
+      <c r="D343" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E343" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F343" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="G343" s="18">
+      <c r="G343" s="43">
         <v>21</v>
       </c>
-      <c r="H343" s="18" t="s">
+      <c r="H343" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="I343" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J343" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K343" s="4" t="s">
+      <c r="I343" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J343" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K343" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L343" s="4" t="s">
+      <c r="L343" s="28" t="s">
         <v>2048</v>
       </c>
     </row>
     <row r="344" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A344" s="44"/>
-      <c r="B344" s="46"/>
-      <c r="C344" s="48"/>
+      <c r="B344" s="45"/>
+      <c r="C344" s="46"/>
       <c r="D344" s="44"/>
       <c r="E344" s="44"/>
-      <c r="F344" s="9" t="s">
+      <c r="F344" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="G344" s="18">
+      <c r="G344" s="43">
         <v>22</v>
       </c>
-      <c r="H344" s="18" t="s">
+      <c r="H344" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="I344" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J344" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K344" s="4" t="s">
+      <c r="I344" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J344" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K344" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L344" s="4" t="s">
+      <c r="L344" s="28" t="s">
         <v>2048</v>
       </c>
     </row>
@@ -25030,118 +25060,118 @@
       </c>
     </row>
     <row r="456" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A456" s="31" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B456" s="27" t="s">
+      <c r="A456" s="47" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B456" s="48" t="s">
         <v>502</v>
       </c>
       <c r="C456" s="49" t="s">
         <v>1500</v>
       </c>
-      <c r="D456" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="E456" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="F456" s="35" t="s">
+      <c r="D456" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="E456" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="F456" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="G456" s="1">
+      <c r="G456" s="27">
         <v>3</v>
       </c>
-      <c r="H456" s="1" t="s">
+      <c r="H456" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I456" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J456" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K456" s="4" t="s">
+      <c r="I456" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J456" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K456" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L456" s="4" t="s">
+      <c r="L456" s="28" t="s">
         <v>2048</v>
       </c>
     </row>
     <row r="457" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A457" s="32"/>
-      <c r="B457" s="39"/>
-      <c r="C457" s="50"/>
-      <c r="D457" s="32"/>
-      <c r="E457" s="32"/>
-      <c r="F457" s="29"/>
-      <c r="G457" s="1">
+      <c r="A457" s="50"/>
+      <c r="B457" s="51"/>
+      <c r="C457" s="52"/>
+      <c r="D457" s="50"/>
+      <c r="E457" s="50"/>
+      <c r="F457" s="34"/>
+      <c r="G457" s="27">
         <v>4</v>
       </c>
-      <c r="H457" s="1" t="s">
+      <c r="H457" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I457" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J457" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K457" s="4" t="s">
+      <c r="I457" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J457" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K457" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L457" s="4" t="s">
+      <c r="L457" s="28" t="s">
         <v>2048</v>
       </c>
     </row>
     <row r="458" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A458" s="32"/>
-      <c r="B458" s="39"/>
-      <c r="C458" s="50"/>
-      <c r="D458" s="32"/>
-      <c r="E458" s="32"/>
-      <c r="F458" s="29"/>
-      <c r="G458" s="1">
+      <c r="A458" s="50"/>
+      <c r="B458" s="51"/>
+      <c r="C458" s="52"/>
+      <c r="D458" s="50"/>
+      <c r="E458" s="50"/>
+      <c r="F458" s="34"/>
+      <c r="G458" s="27">
         <v>18</v>
       </c>
-      <c r="H458" s="1" t="s">
+      <c r="H458" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="I458" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J458" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K458" s="4" t="s">
+      <c r="I458" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J458" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K458" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L458" s="4" t="s">
+      <c r="L458" s="28" t="s">
         <v>2048</v>
       </c>
     </row>
     <row r="459" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A459" s="33"/>
-      <c r="B459" s="28"/>
-      <c r="C459" s="51"/>
-      <c r="D459" s="33"/>
-      <c r="E459" s="33"/>
-      <c r="F459" s="30"/>
-      <c r="G459" s="1">
+      <c r="A459" s="53"/>
+      <c r="B459" s="54"/>
+      <c r="C459" s="55"/>
+      <c r="D459" s="53"/>
+      <c r="E459" s="53"/>
+      <c r="F459" s="37"/>
+      <c r="G459" s="27">
         <v>17</v>
       </c>
-      <c r="H459" s="1" t="s">
+      <c r="H459" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="I459" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J459" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K459" s="4" t="s">
+      <c r="I459" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J459" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K459" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L459" s="4" t="s">
+      <c r="L459" s="28" t="s">
         <v>2048</v>
       </c>
     </row>
@@ -33810,170 +33840,170 @@
       </c>
     </row>
     <row r="688" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A688" s="31" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B688" s="27" t="s">
+      <c r="A688" s="47" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B688" s="48" t="s">
         <v>736</v>
       </c>
-      <c r="C688" s="40" t="s">
+      <c r="C688" s="56" t="s">
         <v>1724</v>
       </c>
-      <c r="D688" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E688" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="F688" s="29" t="s">
+      <c r="D688" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="E688" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="F688" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="G688" s="1">
+      <c r="G688" s="27">
         <v>15</v>
       </c>
-      <c r="H688" s="1" t="s">
+      <c r="H688" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I688" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J688" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K688" s="4" t="s">
+      <c r="I688" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J688" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K688" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L688" s="4" t="s">
+      <c r="L688" s="28" t="s">
         <v>2048</v>
       </c>
     </row>
     <row r="689" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A689" s="32"/>
-      <c r="B689" s="39"/>
-      <c r="C689" s="41"/>
-      <c r="D689" s="39"/>
-      <c r="E689" s="39"/>
-      <c r="F689" s="29"/>
-      <c r="G689" s="1">
+      <c r="A689" s="50"/>
+      <c r="B689" s="51"/>
+      <c r="C689" s="57"/>
+      <c r="D689" s="51"/>
+      <c r="E689" s="51"/>
+      <c r="F689" s="34"/>
+      <c r="G689" s="27">
         <v>14</v>
       </c>
-      <c r="H689" s="1" t="s">
+      <c r="H689" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I689" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J689" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K689" s="4" t="s">
+      <c r="I689" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J689" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K689" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L689" s="4" t="s">
+      <c r="L689" s="28" t="s">
         <v>2048</v>
       </c>
     </row>
     <row r="690" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A690" s="32"/>
-      <c r="B690" s="39"/>
-      <c r="C690" s="41"/>
-      <c r="D690" s="39"/>
-      <c r="E690" s="39"/>
-      <c r="F690" s="29"/>
-      <c r="G690" s="1">
+      <c r="A690" s="50"/>
+      <c r="B690" s="51"/>
+      <c r="C690" s="57"/>
+      <c r="D690" s="51"/>
+      <c r="E690" s="51"/>
+      <c r="F690" s="34"/>
+      <c r="G690" s="27">
         <v>13</v>
       </c>
-      <c r="H690" s="1" t="s">
+      <c r="H690" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I690" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J690" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K690" s="4" t="s">
+      <c r="I690" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J690" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K690" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L690" s="4" t="s">
+      <c r="L690" s="28" t="s">
         <v>2048</v>
       </c>
     </row>
     <row r="691" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A691" s="32"/>
-      <c r="B691" s="39"/>
-      <c r="C691" s="41"/>
-      <c r="D691" s="39"/>
-      <c r="E691" s="39"/>
-      <c r="F691" s="29"/>
-      <c r="G691" s="1">
+      <c r="A691" s="50"/>
+      <c r="B691" s="51"/>
+      <c r="C691" s="57"/>
+      <c r="D691" s="51"/>
+      <c r="E691" s="51"/>
+      <c r="F691" s="34"/>
+      <c r="G691" s="27">
         <v>12</v>
       </c>
-      <c r="H691" s="1" t="s">
+      <c r="H691" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="I691" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J691" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K691" s="4" t="s">
+      <c r="I691" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J691" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K691" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L691" s="4" t="s">
+      <c r="L691" s="28" t="s">
         <v>2048</v>
       </c>
     </row>
     <row r="692" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A692" s="32"/>
-      <c r="B692" s="39"/>
-      <c r="C692" s="41"/>
-      <c r="D692" s="39"/>
-      <c r="E692" s="39"/>
-      <c r="F692" s="29"/>
-      <c r="G692" s="1">
+      <c r="A692" s="50"/>
+      <c r="B692" s="51"/>
+      <c r="C692" s="57"/>
+      <c r="D692" s="51"/>
+      <c r="E692" s="51"/>
+      <c r="F692" s="34"/>
+      <c r="G692" s="27">
         <v>2</v>
       </c>
-      <c r="H692" s="1" t="s">
+      <c r="H692" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="I692" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J692" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K692" s="4" t="s">
+      <c r="I692" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J692" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K692" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L692" s="4" t="s">
+      <c r="L692" s="28" t="s">
         <v>2048</v>
       </c>
     </row>
     <row r="693" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A693" s="33"/>
-      <c r="B693" s="28"/>
-      <c r="C693" s="42"/>
-      <c r="D693" s="28"/>
-      <c r="E693" s="28"/>
-      <c r="F693" s="30"/>
-      <c r="G693" s="1">
+      <c r="A693" s="53"/>
+      <c r="B693" s="54"/>
+      <c r="C693" s="58"/>
+      <c r="D693" s="54"/>
+      <c r="E693" s="54"/>
+      <c r="F693" s="37"/>
+      <c r="G693" s="27">
         <v>1</v>
       </c>
-      <c r="H693" s="1" t="s">
+      <c r="H693" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I693" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J693" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K693" s="4" t="s">
+      <c r="I693" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J693" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K693" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L693" s="4" t="s">
+      <c r="L693" s="28" t="s">
         <v>2048</v>
       </c>
     </row>
@@ -35384,66 +35414,66 @@
       </c>
     </row>
     <row r="731" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A731" s="22" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B731" s="35" t="s">
+      <c r="A731" s="29" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B731" s="30" t="s">
         <v>389</v>
       </c>
-      <c r="C731" s="36" t="s">
+      <c r="C731" s="31" t="s">
         <v>1389</v>
       </c>
-      <c r="D731" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="E731" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="F731" s="31" t="s">
+      <c r="D731" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="E731" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="F731" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="G731" s="1">
+      <c r="G731" s="27">
         <v>19</v>
       </c>
-      <c r="H731" s="1" t="s">
+      <c r="H731" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="I731" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J731" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K731" s="3" t="s">
+      <c r="I731" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J731" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K731" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="L731" s="3" t="s">
+      <c r="L731" s="32" t="s">
         <v>2048</v>
       </c>
     </row>
     <row r="732" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A732" s="24"/>
-      <c r="B732" s="30"/>
+      <c r="A732" s="36"/>
+      <c r="B732" s="37"/>
       <c r="C732" s="38"/>
-      <c r="D732" s="24"/>
-      <c r="E732" s="24"/>
-      <c r="F732" s="24"/>
-      <c r="G732" s="1">
+      <c r="D732" s="36"/>
+      <c r="E732" s="36"/>
+      <c r="F732" s="36"/>
+      <c r="G732" s="27">
         <v>20</v>
       </c>
-      <c r="H732" s="1" t="s">
+      <c r="H732" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="I732" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J732" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K732" s="4" t="s">
+      <c r="I732" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J732" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K732" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L732" s="4" t="s">
+      <c r="L732" s="28" t="s">
         <v>2048</v>
       </c>
     </row>
@@ -41749,7 +41779,7 @@
         <v>41</v>
       </c>
       <c r="K898" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L898" s="4" t="s">
         <v>2045</v>
@@ -46286,21 +46316,6 @@
   </sheetData>
   <autoFilter ref="A3:L1017"/>
   <mergeCells count="31">
-    <mergeCell ref="E343:E344"/>
-    <mergeCell ref="F456:F459"/>
-    <mergeCell ref="B456:B459"/>
-    <mergeCell ref="E456:E459"/>
-    <mergeCell ref="D456:D459"/>
-    <mergeCell ref="A343:A344"/>
-    <mergeCell ref="B343:B344"/>
-    <mergeCell ref="C343:C344"/>
-    <mergeCell ref="C456:C459"/>
-    <mergeCell ref="D343:D344"/>
-    <mergeCell ref="B688:B693"/>
-    <mergeCell ref="C688:C693"/>
-    <mergeCell ref="D688:D693"/>
-    <mergeCell ref="E688:E693"/>
-    <mergeCell ref="A456:A459"/>
     <mergeCell ref="F688:F693"/>
     <mergeCell ref="A688:A693"/>
     <mergeCell ref="A1:L1"/>
@@ -46317,6 +46332,21 @@
     <mergeCell ref="B731:B732"/>
     <mergeCell ref="C731:C732"/>
     <mergeCell ref="D731:D732"/>
+    <mergeCell ref="B688:B693"/>
+    <mergeCell ref="C688:C693"/>
+    <mergeCell ref="D688:D693"/>
+    <mergeCell ref="E688:E693"/>
+    <mergeCell ref="A456:A459"/>
+    <mergeCell ref="A343:A344"/>
+    <mergeCell ref="B343:B344"/>
+    <mergeCell ref="C343:C344"/>
+    <mergeCell ref="C456:C459"/>
+    <mergeCell ref="D343:D344"/>
+    <mergeCell ref="E343:E344"/>
+    <mergeCell ref="F456:F459"/>
+    <mergeCell ref="B456:B459"/>
+    <mergeCell ref="E456:E459"/>
+    <mergeCell ref="D456:D459"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
